--- a/CFMForCAVs/results/cavs.xlsx
+++ b/CFMForCAVs/results/cavs.xlsx
@@ -5,15 +5,15 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Darco\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ZJobProjects\car-following-model\CFMForCAVs\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{543F76D7-1E6F-4E49-B5EE-58EE1F755FF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF9F47DF-5A3C-41B9-9A0E-9B606D700560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="尾部车辆数据" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -109,10 +109,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -400,7 +400,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -423,22 +423,22 @@
         <v>1</v>
       </c>
       <c r="E1" s="4"/>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="2"/>
+      <c r="G1" s="3"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="1" t="s">
